--- a/inputfiles/mockMaterials/finalTFsdfwithPrimers.xlsx
+++ b/inputfiles/mockMaterials/finalTFsdfwithPrimers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,32 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>problemPrimerType</t>
+          <t>VAL-F</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HAL-F</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>HAL-R</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>HAR-F</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>HAR-R</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>VAL-R</t>
         </is>
       </c>
     </row>
@@ -532,7 +557,32 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AATCGCTGCGATGGGAGATAG</t>
+          <t>GTGGGCGTGGCAAATAGTTG</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TCCATCCGTCGGTCATTTCG</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>TTGACATCCGAAGCTAAATCCCATTCGTC</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>AAGGGCTTACAACAAATTCCG</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>GCTGATGCTGATGCTGATGC</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AAACATTGCCGCGTTCTACG</t>
         </is>
       </c>
     </row>
@@ -581,7 +631,36 @@
           <t>TTCCACTTTTACTCCCATTTTTTTATACAGTAGTATACAGTTTTGAAGAGAATTGAAATACATTTTAATCAAGATATAAATGGTTAGTAGTCTCTCTAAAATAACGATACCCAGAGCATGTGTATAGTACTCGTAGTATATATCCAGCTGTATGAGAAATTTGTAAGTGGAAAAACACGACATCTTATTAATACATTAGTCTGAAATTTATTCACATGGGAATGCTTAAAATAAAAGATTATACCGGAAAAGAAATGATCAAATACAACAGAGTAATTTTTGAGAACTTTCCTATTGGTTTTTTATTAATAACAGAAAAACGTATTATTTTCTAGGGAATCGGAATTTCAATATTTTGGAAATATAAAGAACTCCATTTGATTATAAAGACAGCAAATTAGGCATATTTGTAATTATCATCGCGTTTACAGTCAGAAAAGTACCAATATTGCAATTGAGTAGAAATATTCCTAATATGATTATGGTGACGTTGACATCCGAAGCTAAATCCCATTCGTCTTGAAAGGGCTTACAACAAATTCCGTATTTTTCCAGTGTGAAAAGGTATGAAACCCAAAAACGACATCCATGCAGGAGGCGCTAAGGGACGGAGGACGAGGACGATGGCTCCAGGGTCAGGTAGAAATAATCCAATTTAGAAACCGCTAGTCCAGCGCTAATCCGAAAACGTTTGCGACTCCCGTTCCCGTAGATGTGGATCAATGAATGAATCCGAAGGCTTTCATGAATCTGTTTGCGCGGCGATTAAAAGGGGAATGGATCGCTAATCCGCGTCCCAGGATACACGGGTAATCCTCGAGTTCAGCCTCTTCCTCTCGTATAAATAGATCGGCGGCCGGTGGACTGGTCACAGTCGTTTTACGAACTCAAACAGTGACACATATTGCAATATTATTACGATGGATACGACACCAATCTTCCAGTCCAGCTTCTCCATCCGATCGCTGCTCTCCGTGGACAAAAAGGAGGAGTCCCCCATTTCGAAGCACAACTCAGGAAGCAGCTTCAGCTCATGCTCGAGCTCCAGTTCCAACTCCAGCTCGGATTCGATGGCTGCAAAGAGCAATGCAAAGCCGGCTTTCACCTACAGCGCCCTCATAGTGATGGCCATCTGGAGCAGCTCCGAGAAGCGTTTGACCCTAAGCGGGATCTGCAAGTGGATCGCGGACAACTTCCCGTACTATCGCACCCGCAAGAGCGTCTGGCAGAACTCGATCCGGCACAACCTGAGTCTCAATCCGTTCTTCGTTCGGGTGCCGCGAGCTCTCGATGATCCTGGACGTGGCCACTACTGGGCACTCGATCCGTATGCCGAGGATCTGTCCATTGGCGAGACGACGGGACGCCTGCGCCGCAGCAATTGGCAGCAGAATACGGGGGCGAGACCCAAGGTCACAGGTCATCCCTATCAGCGAATGCCATATTATGGGCACGGGCACGGTAACGGCCCATATATCAAGGCACACAGCGCCTACTTCCCCATAATGGACCATCAACACCATGCCGCCATGGTGCAGCACTACCAGGCCATGATGCACAGATACCAGATGATGCCACATCCTCACCATCACCAGCATCAGCATCAGCATCAGCATCCTCATTCTCATTTCATTCAGCAATCAAAGCCCCTTCATATCCAGGAGCCATATCATCATACCCGCTACCATCTTCACCAAGAGTGAATTTCAGCAGTCTTAGAGGCGTGAAAACTCACTCAAAGACTACGAACTGTGAAAATTCCTTCTTGGCGTAGAACGCGGCAATGTTTTTAGCTTTAAATCATGTAGGGTAATATCCATAGAAACTATGCCCAGGCTTTAAAATATATCGTAGTAAACGTTACGTGCATTCTCATACAAAACTTTAGGTTGTTTTCAAATAAAGATGATTCGACATTCGAAGAATAGTGCGAAATTTTTATTGTATTTTGGTTTAGTGATTTATATATTTTGCTTATTTAAAAATTGAATTAATATTAACTGCCATTGAAAAATAAAACTTAATATCCGAAGAACTTTGTTCTTTTTTCTTAAATAAAATAGGGCATTTTCTGAAGACAATAATTTTGCATTTATATTGGACTTAAAACCGATTTGTACGAATATTGATTTAATTCCAGCAAAGTCCATATGCTAGTTTTTGTTTTGTGATATTCATGTGCGTTTCGTCACTACGTGAAACCCTAACCAACCGCAAAGCCCATGTATTGTTACAGCAGGTACATGCTACAACTGCTTTTTTTTTTTGGTTTTTAATTGCATCCCTGAAAACACTTGAATATTTCAACACAATTTAAATAAAGGACTTCCCAGCTGGTCTCGAGGATCCCAACTAGCCGCTATTCCGGGAAGTTTTCAACTGTTGAAAACTGTCGGTTGAAGCTGCATCGCCACGTTGGATACCACATCCAAATGCCGGCTGTAAATGACTTAAGTGCCTGGCATTTATCTGCTAAAACGTGTCCTGCTTTCGTCCTTGTCATCGTCACAGTTATTCACTTGGCTTTACTTGTTCGAGTGACAGCAGCCGACTCGTTGTTGCCGCTGTCACACCTGTTAAGTAAGTGAATCGGGCAGTGGGTGTACTTGGATGCGGCTACGGCTGCGGATGTGGATAGGGATGGGGATGGGGATGGGGATGGGGACTTTGATAGGGGGCCATAGTTGCGCAAACATTCAACTTTTTTGGCCACGCGAGAGGTTTTACATTAAATTCATTTGGCCGCACGAACAACAACAGAGTGAGTGCGCAATTGAATGCCAAATGACTTTGAAACTTCTCGCCGCGCAAACAATAAGCCGCAATGCAATGACAACAAGATTCCCTTAAAATATTACACATTTTCCGAATCCATTCTGTTTGCCCAGCGTGGCAGAAGTGAATGATCCGCTTACCGGCCCGATTCCCTGCATAGGGACAACTTATTGGCCATCTCTCCCCTCCGTTCCGCCGGAAAACTACCGATGCCAAGCAATGATATTGCTCAGATCCATTGTGTCACTGTTCAGAGTGGTCAAATCGAAAGTTTCCTTCGATTGTCTGTGGTTTGGCTTTGGCGTTTGTTTAGGTACGAAAAGTTGCTGATGAATCATGAGTTTGAAGGCATTGTTTTCGGTGATAAGAGTACGGAATACTTTCAAAACTCCGCCTACACCGATCACCCCCAAAAAGGAATGATTGGATTCAAAAATAACACTGCAATGCCACAGTTGAATTGCTGTGCTATGTCAAAGAGGAAGTATAACATATATTCTAACATTTATTCTATGACAACTTTATGGTAACTTCAGAAGTTGTTACCTTAAATTTCCAAATCGACTTCCATCCGGTCCTATGGTTTTAATCGCCGAAGAGGTGATGGTGGATGGTGTCCCCGTGAGAC</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CTGAAATTTATTCACATGGGAATGC</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>TCGGGTGCCGCGAGCTCTCGATGATCCTG</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>TGGCCACTACTGGGCACTCGATCCGTATGC</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CTTCCCGGAATAGCGGCTAG</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>GCTGCTGTCACTCGAACAAG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -628,7 +707,36 @@
           <t>TTAATTCAATGGCACCTAGGCGTAGGCTCTACAGTTCTAAGCTCCCAATTTTGAAGACCCTAATAAACATGAGTACATACTTTGTACATACTTTTCATTTATCGGCTAGAATACCTGTACGATCAACATTGGTACTGAAATGTACGGAAGCTGTCCTGTAATCGAGGCCTTACTGTGTCGCAAGCATGCCGCTTTAAGAAGTGTGGAATAAATGAAACAACGTCAAGTAATCGGCAGACCGAGTCAATATTAATGACGACTTCATCTTTATTCGGTTGATACGCCATATATTCAGATCTCAGTTCTTCCCCCCTTAAGTTTATCCCGTCACGATTTTTCGGTTTTCTGTCGCAGGGTCTTAGTAACATTTATTGTACTATTTAGTCGTTATCAAGCAGAAAAGCTCAAGAAGAGCACTTGTGGCGCTAAGCGATATTCAAAGCAAAAAATAATAATAAAATTGCAAATTCATAAACCTGGTTGACACTGAATACCTTGTCTCAATGCTTCGCGGCAAATTTATATTACATCAACACGGATTTTGCAAGGTCGACCGGATATGTTTGATTTTATTAGCCTCTGGACATCTGGTATGTCTGTGCTTAGATGCCCTGTGATGTCCTTTTCACATGTAATGCTATGCAATCCCCCGGGGCTACAGCAACGAAGTGTTAAACGAGGCTCAGTGTGAGTTAGTGCCAATACAAATCTATTTCGGCACGGTTTCCTAGCGTGCAACCAGAATTCTGACAATGGTTTTAAGAAATAATGGGGACCTCCTAAATGCTTTCAAAATGCTTTCGGCTGAGAGGAACAACAACTGATACGTTGGGCATAAAGGCCCCGGGGCATTAGAAGTGTTAATAGAAAAGTGCCTCCGGCTGATCAGGTTTCGTTGCAGGACCGAATGGATCGCCGCCTGAGGTGTTGATGAGCTGGCCTTGAAAATTCCTACGACTTTGGATTCGAGCGACAATGGTCTAGTGTTTAAGATAATGTCCGAATGATCCAGGGATCGGAAGGTCATCAGTACATAAAATAAATTAAATTAAATGTATTAACATAAAATTAAAGATTTTTTAAAAGTCTAAAATACCTAGCCTTGTTAATTAAAGATTATTTTTTCGTAAACACTTTTGGTAGTGTATAAATTGTAAATGTCCCCATTTTTATAATTGTAATGACAGTCTATTCCACTAATTTTGTTGTATTTTGTTAGTTATACAAATTGGATGGCCACTTTCAATAGGAGATACAGCTTTTTACTTCGGAGGTGTTTTTACTTGGCTCTGATGTCTGGACCTTGTTGCCTTTTTAAACCGGTTGGCAGCCGGCACGCGACAGGGCCAGGTTTTCGTTTGGGGACGACAGGCAGCTGAAAATGAGCAAAAACACTCAGAAACTCTTCCCACTCGACAACGGGAACACTCAGGTCACCAACAGCTGCGTTTTACAGAGAGAACGAGAGATAATATTACTACCTCTCTATTAAAATCAGAGAAAACACTCATCTCAAGAGACGATCCTTCAGTGATGATGCTGTTGCACCTTTTCCAGGGGCAGGTAGGTAGTCACGCAGGTGGGATCCCTAGGCCCTGATACCTATAAATAGCCTGAACGGAACGGGGAAGGGCATCAGAACAGAGCCAGCGCTGAAGCAAGGAGCATCGTCACACAATAACGTTATACTATCTCTTAAAATGGCTTTGGGCAGCGAAAATCACTCTGTTTTCAACGACGACGAGGAGTCATCTTCGGCCTTTAATGGACCCTCTGTTATCCGGAGAAATGCCCGGGAACGCAACCGCGTAAAGCAGGTCAACAATGGCTTCAGCCAACTACGACAACATATCCCTGCGGCCGTAATAGCCGATTTAAGCAATGGTCGCCGGGGAATTGGTCCCGGCGCCAATAAAAAACTGAGCAAAGTTAGCACACTGAAAATGGCAGTAGAGTACATACGGCGCTTGCAGAAAGTTCTTCATGAAAACGACCAGCAGAAACAGAAACAGTTGCATTTGCAGCAGCAACATTTGCACTTTCAGCAGCAGCAACAGCATCAACACTTATACGCCTGGCACCAAGAGTTGCAGTTGCAATCTCCAACTGGCAGCACAAGTTCCTGCAACAGCATTAGCTCTTATTGCAAGCCAGCAACATCGACGATTCCGGGAGCAACACCTCCTAACAATTTTCATACCAAGTTGGAAGCCAGTTTTGAAGACTACCGTAACAATTCCTGCAGTTCTGGTACTGAAGATGAGGACATCCTCGACTATATATCACTCTGGCAGGACGACCTGTAAAAAAACAGATCAAATCTTCAGCTATTGCTAGTCGCACCCAACCATAACACACATCAAACCATTGATTGGCCAACAAGTATTACCTCAGCCACAAAGTATTTATATTCCCTAGAACTACCTTTTTGCCTTATAAATTAGTATTTAAGGTTTTATATAGTTTCTAAGGATAGTTTCTAATGGAAGACAATTTATATTTAAGTTTTTTTTTATAGCATACATTGAGGACATTAAACTGATATATATAAAATTTTAAATGAGTTTTTATTGTAAACAAAATTAAACGGTAATTAAAGTGAAACAAATTTATGTACAAAAGGAGTAAAATTCAGAAAAGTTTTAATGAACAAATGCTTTATGAATATGGGCGTAGCAATGTTTTGATACAAACTTGATCCTGTCCTGTATACCACAGGACACGCTTCCTTTTACCTGGTACATTCCTTTAAACGATCCTAGTATACGCTTTATTCGGGGTAAGCCCGAAAAAAGTATTCGAAACTGTAACCGTTAAGTATTTACAGATCACTAGCCAATGAAGATAAATTACAATAACATTTTGTAAACACTTTTGATCGAAAACGCCGATTTGCATAAATAAAGTTGGATTGAGTAGGGTGAAAAAGGCAAAATATTTACCTGCTGCATTTTTGCATATGAACCGGTCAAGGTAATAAGATCCTGAGAATTCACAATTCCGGAGAGATCGATCGATCGATCGATGAATGAACTAATTTTGAGTTATTCCCGCAATGCAGCCGAAACAAGCGAAAAAACAACGGTCGGCAATTGTTCAGATCGCCCCCGACAACGTTCAGAAAAATGAAAATAAGATCTGCTCAGGCATTCTGCACCGGAAGCCGCCGCGATGAAGCTGCTGCAAAAAAAACTCACGCAAGATACATATACTCTAAAAACAAAAGAAACATGGTTCATGGGTCTTTTCGGCAAATTCTTCACCATATTAGATCACTACATCACACACCAATCTATTCATTAGCAACAATAAAACACTAATAGAAATTGATAATTTGTATACCTAGTTCTTGTCTATTAATCATAAATATTATACTTTTACATGAACCTGAGTCGTGGAAGGT</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>GCGTAGGCTCTACAGTTCTAAGC</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CGTCAAGTAATCGGCAGACC</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>GAGGTGTTTTTACTTGGCTCTGATGTCTG</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>TTGTTGCCTTTTTAAACCGGTTG</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>GGTCGTCCTGCCAGAGTG</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>TCAGTTTAATGTCCTCAATGTATGC</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -675,7 +783,36 @@
           <t>TAGATGCCCTGTGATGTCCTTTTCACATGTAATGCTATGCAATCCCCCGGGGCTACAGCAACGAAGTGTTAAACGAGGCTCAGTGTGAGTTAGTGCCAATACAAATCTATTTCGGCACGGTTTCCTAGCGTGCAACCAGAATTCTGACAATGGTTTTAAGAAATAATGGGGACCTCCTAAATGCTTTCAAAATGCTTTCGGCTGAGAGGAACAACAACTGATACGTTGGGCATAAAGGCCCCGGGGCATTAGAAGTGTTAATAGAAAAGTGCCTCCGGCTGATCAGGTTTCGTTGCAGGACCGAATGGATCGCCGCCTGAGGTGTTGATGAGCTGGCCTTGAAAATTCCTACGACTTTGGATTCGAGCGACAATGGTCTAGTGTTTAAGATAATGTCCGAATGATCCAGGGATCGGAAGGTCATCAGTACATAAAATAAATTAAATTAAATGTATTAACATAAAATTAAAGATTTTTTAAAAGTCTAAAATACCTAGCCTTGTTAATTAAAGATTATTTTTTCGTAAACACTTTTGGTAGTGTATAAATTGTAAATGTCCCCATTTTTATAATTGTAATGACAGTCTATTCCACTAATTTTGTTGTATTTTGTTAGTTATACAAATTGGATGGCCACTTTCAATAGGAGATACAGCTTTTTACTTCGGAGGTGTTTTTACTTGGCTCTGATGTCTGGACCTTGTTGCCTTTTTAAACCGGTTGGCAGCCGGCACGCGACAGGGCCAGGTTTTCGTTTGGGGACGACAGGCAGCTGAAAATGAGCAAAAACACTCAGAAACTCTTCCCACTCGACAACGGGAACACTCAGGTCACCAACAGCTGCGTTTTACAGAGAGAACGAGAGATAATATTACTACCTCTCTATTAAAATCAGAGAAAACACTCATCTCAAGAGACGATCCTTCAGTGATGATGCTGTTGCACCTTTTCCAGGGGCAGGTAGGTAGTCACGCAGGTGGGATCCCTAGGCCCTGATACCTATAAATAGCCTGAACGGAACGGGGAAGGGCATCAGAACAGAGCCAGCGCTGAAGCAAGGAGCATCGTCACACAATAACGTTATACTATCTCTTAAAATGGCTTTGGGCAGCGAAAATCACTCTGTTTTCAACGACGACGAGGAGTCATCTTCGGCCTTTAATGGACCCTCTGTTATCCGGAGAAATGCCCGGGAACGCAACCGCGTAAAGCAGGTCAACAATGGCTTCAGCCAACTACGACAACATATCCCTGCGGCCGTAATAGCCGATTTAAGCAATGGTCGCCGGGGAATTGGTCCCGGCGCCAATAAAAAACTGAGCAAAGTTAGCACACTGAAAATGGCAGTAGAGTACATACGGCGCTTGCAGAAAGTTCTTCATGAAAACGACCAGCAGAAACAGAAACAGTTGCATTTGCAGCAGCAACATTTGCACTTTCAGCAGCAGCAACAGCATCAACACTTATACGCCTGGCACCAAGAGTTGCAGTTGCAATCTCCAACTGGCAGCACAAGTTCCTGCAACAGCATTAGCTCTTATTGCAAGCCAGCAACATCGACGATTCCGGGAGCAACACCTCCTAACAATTTTCATACCAAGTTGGAAGCCAGTTTTGAAGACTACCGTAACAATTCCTGCAGTTCTGGTACTGAAGATGAGGACATCCTCGACTATATATCACTCTGGCAGGACGACCTGTAAAAAAACAGATCAAATCTTCAGCTATTGCTAGTCGCACCCAACCATAACACACATCAAACCATTGATTGGCCAACAAGTATTACCTCAGCCACAAAGTATTTATATTCCCTAGAACTACCTTTTTGCCTTATAAATTAGTATTTAAGGTTTTATATAGTTTCTAAGGATAGTTTCTAATGGAAGACAATTTATATTTAAGTTTTTTTTTATAGCATACATTGAGGACATTAAACTGATATATATAAAATTTTAAATGAGTTTTTATTGTAAACAAAATTAAACGGTAATTAAAGTGAAACAAATTTATGTACAAAAGGAGTAAAATTCAGAAAAGTTTTAATGAACAAATGCTTTATGAATATGGGCGTAGCAATGTTTTGATACAAACTTGATCCTGTCCTGTATACCACAGGACACGCTTCCTTTTACCTGGTACATTCCTTTAAACGATCCTAGTATACGCTTTATTCGGGGTAAGCCCGAAAAAAGTATTCGAAACTGTAACCGTTAAGTATTTACAGATCACTAGCCAATGAAGATAAATTACAATAACATTTTGTAAACACTTTTGATCGAAAACGCCGATTTGCATAAATAAAGTTGGATTGAGTAGGGTGAAAAAGGCAAAATATTTACCTGCTGCATTTTTGCATATGAACCGGTCAAGGTAATAAGATCCTGAGAATTCACAATTCCGGAGAGATCGATCGATCGATCGATGAATGAACTAATTTTGAGTTATTCCCGCAATGCAGCCGAAACAAGCGAAAAAACAACGGTCGGCAATTGTTCAGATCGCCCCCGACAACGTTCAGAAAAATGAAAATAAGATCTGCTCAGGCATTCTGCACCGGAAGCCGCCGCGATGAAGCTGCTGCAAAAAAAACTCACGCAAGATACATATACTCTAAAAACAAAAGAAACATGGTTCATGGGTCTTTTCGGCAAATTCTTCACCATATTAGATCACTACATCACACACCAATCTATTCATTAGCAACAATAAAACACTAATAGAAATTGATAATTTGTATACCTAGTTCTTGTCTATTAATCATAAATATTATACTTTTACATGAACCTGAGTCGTGGAAGGTATACTTTTTAATGAACGTAAGCCGTGGCATATGTATCGAATTATTATTTCCGGCCTTTTCTTGTTTTTGCATTGCACATATATATATTAAAAGAATTGAAAAGCTGAAACCCAAAAACGTAAGCTACACCTAAGTGTCTCGGCTATCAGTTACCCGTTAACATATCCATTATTAATGTAATATTCCTTATATACTTATGCTACATGTACATATGTATATATTTTGTATACATCATTAAGTGCAGGGAGGTAATATATATGATATTTTTATATATATACAGGAAATTCATTTATTAGCGTGGCTTTGGGCCTTCGAACTGATAATTTTAACTTATTTTATGCAATATACACTTAAGAGTCGGAAAAGCTTCCGTCTACCTGTTGCATTATTCTCCACAAATATTGCATACCCTTGAGCCACGGGTATAAAAAGGGTAAAGGCTGTAGGGGCTCTCTTCCCTCCATTGGCGGTCTCAATGGGCGACATACGAACGACACAATGTCTTTGCGACAGCAAACGGTGCAAAATCGAACGCTTTTTGTGTGAAGTTAATAATACGTTTGACATGGCTCCGAAAGGGCGATCGATCCCAGAAATATATGC</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>AGGCTCAGTGTGAGTTAGTGC</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>GGCTGATCAGGTTTCGTTGC</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>TTTAAGCAATGGTCGCCGGGGAATTGGTC</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CGCCAATAAAAAACTGAGCAAAGTTAGCAC</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>GCAAATCGGCGTTTTCGATC</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>TTTTGCAGCAGCTTCATCGC</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -722,7 +859,36 @@
           <t>CGCGTATATGCATTATATGCATTCCACTTCAGTTAAATGTCCGCATACACCATAGATCACACAGTTCACTGAGTGGAGTTTCTAATGACGACTTCAACCCTATTCTAGGCATGTCACCGGCATTTCTCCCAACCATTTATTAAAATGCTTCAATGGAATTTTGGAAAATGCGAAAATTTAAATAGAACATTGTGCTGCCAAAATTTCTGCAACACTCAAGAACAATGATAGTGTTAATGATGGTAAAATAATGGAAACCAACTACCGATCCCTCCGTTACAATGCAAAAACTAAAGAGTGGAGACTCCAAGCGAAGTTCAGCATGCAAAAAAGGTATTGGAAATGGTGAAAGGATTTTATTTATAGGAACAACACAGAGAAGCGCCGTTTGCTGGTCATGGTTGAAAAGGTTTTTTTGTTATCAGGATTTCGGTTTTCGCTTTGGTTTTGGTTTCGGATTCGGTTTTTGATTTTGGGATCCGGGGATCTAAAATTTGCCAAATAGAAGTGAAGAAGTGCTATTGCTGATGATTTGGCAAAAGAAAAATGCTGGCAGAAGCAAACGAGGGTAACGAGTTGAGGACAATAAAAATATTACACCTGGTCGCCGATTTGGCATCTTTTCACTCGCTCATCGATTGATGATCGTGACAAAATGAACCGATTTTTGTGAACAGAGCGGAAGTTACAATTTACAGTCGCCGTTTAGCACGACACAGTGGCCAATGGCAAGTTACAACAGTCTGAAATAATCAATTTATTATTTCAAAGAAGATGTATGAAACTTCATGTATGTCTAGTATTTCTTTACCTTAGACCGCATTATGTAATAGAACAAATAACAAGTATACACCGTTAAAAGTCAAATGTGTGAACATTTAATCAAACCCAGAACTAAATTATTCCCAAACAAATTAATATATTTAAAGCAACATCCCAGTAGTTCTAGAAAAAACACAAGTAGCCACAAACAAAGAACCGCAGTTTTCACTGCAAACTTCCTTCTAGAACTTGTGTCACATCCCTTTGATTTACTTAACAAAAAATTGTGATCCTTTTGATAATTTAATTGGAGAAATAAGTGAAATTGTTTGAACACCTTTAGGGAGCGTACTCCGAATGTCTAATAAGGAGGATCCCAGGATCTTCTGTCGATCCCTTGGATCCGTCCGGCGCTAATGAATAGAAGCGTGCGTGAGCTGCACATAAAATTGGCGATCGCGACTTTTGCTAAGTTAATTAACACAGAAATCAAATTGCTGGCGTGCCGTAGCAAAAAGAGCCCTCACTCAGATACCTTGATCGTTTTTCGATATTTCGAGTTGATATTTTGAGTTTAAAATTTGAGTGTTTCTTTTGGACTGTCGAGTGAGAACAGTTTTCCTGTGGGATACTCGAGTACCTGAGACAGAGAAAGAGAGAGAGACTACCTGTGGCTCACTCACTTCGAGTTCCCTACCTGTGCAGGTAGCTCTTGCCGTCACTCTCTCTCTCTCTTTCTCTCCGATTCTCTCGCCCGTTTCTCTGCCTGAGTGTTGTGCAGAGAGTTGCATAAAGGGTACATAACGCGAGGGTTTAGGACGAAGGGACTCATTCTTGTGTAAGGTGTCAAACGATCAAGTTCAAGTATTGTACTCTGTTCATTTATTTTTTTCTGTTGATCGTTATCCGGAAAGTTAAAGAAAGCTCCGAGTGTGTTAATGAAAAATAATAATAATACAACGAAAAGCACTACCATGTCATCGAGTGTGCTGTCCACCAACGAAACGTTTCCAACGACCATCAATTCGGCAACGAAGATCTTTCGTTATCAGCACATAATGCCAGCCCCTAGTCCATTAATTCCCGGTGGCAATCAAAATCAACCCGCTGGCACAATGCCAATTAAGACTCGCAAGTATACACCAAGGGGTATGGCACTGACCAGATGCTCTGAATCAGTATCATCTCTATCGCCTGGTTCCTCGCCGGCTCCATATAATGTAGACCAATCCCAGTCGGTCCAAAGGCGCAATGCTAGAGAACGAAATCGTGTAAAGCAGGTGAACAACAGCTTCGCCAGGTTGCGGCAACATATACCACAATCCATAATCACGGATTTGACAAAGGGTGGTGGTCGAGGACCTCACAAAAAGATCTCCAAAGTAGACACACTGCGCATTGCCGTCGAGTACATCCGGAGGCTTCAGGATCTGGTGGATGACCTAAATGGGGGCAGCAATATTGGTGCCAACAATGCAGTCACCCAGCTTCAACTTTGTTTGGATGAGTCCAGCAGTCACAGTTCGAGCAGCAGTACTTGCAGTTCCTCAGGGCATAATACCTACTATCAAAACACGATCTCTGTCAGTCCTCTGCAACAACAGCAGCAGCTACAGAGGCAGCAGTTCAATCACCAACCGCTGACAGCGCTCTCATTAAATACCAACTTGGTGGGCACATCCGTACCAGGTGGAGATGCAGGATGCGTATCCACCAGCAAAAACCAGCAAACCTGCCACTCGCCAACATCATCATTCAACTCCAGCATGTCCTTTGATTCAGGCACCTACGAAGGAGTTCCCCAACAAATATCCACCCACCTGGATCGTCTGGATCATCTGGACAACGAATTACACACGCACTCCCAACTTCAGCTAAAATTTGAACCGTACGAACATTTTCAATTAGACGAGGAGGACTGCACCCCCGACGACGAGGAGATTTTGGACTACATCTCTCTATGGCAGGAGCAGTGACTTAATCCCCAAAATTTACCACCACGCCCTATTTTCTTCTAGTCAATGTTGAGTTGAACCAAGTGCCTCAAATTGTAAATAACACTAATACAAAAACAACATACCCCCAATTTTTTTTTCTTACTTTAAGCTATTTTTTTACATTGTTAAGAACCACGAGACCAGTTTCAAATTTATATATTTATGAAATAACTATAGCATGGAAACGAAAACATATTTTTTTGCTAATACAATTTTATGTTAATTAGTTTTTGGTGGAAAAATAAAATGAAAAAATTAAACGAAAAATCATATTTAAGTTCTTTTCTCAAAGGGGATCCATCTATTGATCAGGTTTGTAAAACATTCGGGTACTACTTGCATTGCCTTGCAGTGCCGATGGGACCATGTGCAGCCGTTATGTACAATTAAGGTTGCTTTGCATTGGTTTTACAAAATCACTCTTATATCCAAAAATCATTAATACGAATTACAGATAACGCAAAACATAGATCAGTATTTGGTTTTAGACCAGTAGTTTCCTATTTCTTCAGGTAGTTTCTAAGAATGTCAAATTATCGCAGGTAAGACGATGACACCTGTGACACGTGCCACGAGGTTACTAGTTTAAAAGGTTACTAGTTTTACAATTACGACTTTGAAATTCAGATCAGATATTGAACTTA</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ACACAGTTCACTGAGTGGAG</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CCAAGCGAAGTTCAGCATGC</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>TAGCAAAAAGAGCCCTCACTCAGATACCT</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CGTTTTTCGATATTTCGAGTTGATATTTTG</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>TCGAACTGTGACTGCTGGAC</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>GGGGAACTCCTTCGTAGGTG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -769,7 +935,36 @@
           <t>TTAACAAAAAATTGTGATCCTTTTGATAATTTAATTGGAGAAATAAGTGAAATTGTTTGAACACCTTTAGGGAGCGTACTCCGAATGTCTAATAAGGAGGATCCCAGGATCTTCTGTCGATCCCTTGGATCCGTCCGGCGCTAATGAATAGAAGCGTGCGTGAGCTGCACATAAAATTGGCGATCGCGACTTTTGCTAAGTTAATTAACACAGAAATCAAATTGCTGGCGTGCCGTAGCAAAAAGAGCCCTCACTCAGATACCTTGATCGTTTTTCGATATTTCGAGTTGATATTTTGAGTTTAAAATTTGAGTGTTTCTTTTGGACTGTCGAGTGAGAACAGTTTTCCTGTGGGATACTCGAGTACCTGAGACAGAGAAAGAGAGAGAGACTACCTGTGGCTCACTCACTTCGAGTTCCCTACCTGTGCAGGTAGCTCTTGCCGTCACTCTCTCTCTCTCTTTCTCTCCGATTCTCTCGCCCGTTTCTCTGCCTGAGTGTTGTGCAGAGAGTTGCATAAAGGGTACATAACGCGAGGGTTTAGGACGAAGGGACTCATTCTTGTGTAAGGTGTCAAACGATCAAGTTCAAGTATTGTACTCTGTTCATTTATTTTTTTCTGTTGATCGTTATCCGGAAAGTTAAAGAAAGCTCCGAGTGTGTTAATGAAAAATAATAATAATACAACGAAAAGCACTACCATGTCATCGAGTGTGCTGTCCACCAACGAAACGTTTCCAACGACCATCAATTCGGCAACGAAGATCTTTCGTTATCAGCACATAATGCCAGCCCCTAGTCCATTAATTCCCGGTGGCAATCAAAATCAACCCGCTGGCACAATGCCAATTAAGACTCGCAAGTATACACCAAGGGGTATGGCACTGACCAGATGCTCTGAATCAGTATCATCTCTATCGCCTGGTTCCTCGCCGGCTCCATATAATGTAGACCAATCCCAGTCGGTCCAAAGGCGCAATGCTAGAGAACGAAATCGTGTAAAGCAGGTGAACAACAGCTTCGCCAGGTTGCGGCAACATATACCACAATCCATAATCACGGATTTGACAAAGGGTGGTGGTCGAGGACCTCACAAAAAGATCTCCAAAGTAGACACACTGCGCATTGCCGTCGAGTACATCCGGAGGCTTCAGGATCTGGTGGATGACCTAAATGGGGGCAGCAATATTGGTGCCAACAATGCAGTCACCCAGCTTCAACTTTGTTTGGATGAGTCCAGCAGTCACAGTTCGAGCAGCAGTACTTGCAGTTCCTCAGGGCATAATACCTACTATCAAAACACGATCTCTGTCAGTCCTCTGCAACAACAGCAGCAGCTACAGAGGCAGCAGTTCAATCACCAACCGCTGACAGCGCTCTCATTAAATACCAACTTGGTGGGCACATCCGTACCAGGTGGAGATGCAGGATGCGTATCCACCAGCAAAAACCAGCAAACCTGCCACTCGCCAACATCATCATTCAACTCCAGCATGTCCTTTGATTCAGGCACCTACGAAGGAGTTCCCCAACAAATATCCACCCACCTGGATCGTCTGGATCATCTGGACAACGAATTACACACGCACTCCCAACTTCAGCTAAAATTTGAACCGTACGAACATTTTCAATTAGACGAGGAGGACTGCACCCCCGACGACGAGGAGATTTTGGACTACATCTCTCTATGGCAGGAGCAGTGACTTAATCCCCAAAATTTACCACCACGCCCTATTTTCTTCTAGTCAATGTTGAGTTGAACCAAGTGCCTCAAATTGTAAATAACACTAATACAAAAACAACATACCCCCAATTTTTTTTTCTTACTTTAAGCTATTTTTTTACATTGTTAAGAACCACGAGACCAGTTTCAAATTTATATATTTATGAAATAACTATAGCATGGAAACGAAAACATATTTTTTTGCTAATACAATTTTATGTTAATTAGTTTTTGGTGGAAAAATAAAATGAAAAAATTAAACGAAAAATCATATTTAAGTTCTTTTCTCAAAGGGGATCCATCTATTGATCAGGTTTGTAAAACATTCGGGTACTACTTGCATTGCCTTGCAGTGCCGATGGGACCATGTGCAGCCGTTATGTACAATTAAGGTTGCTTTGCATTGGTTTTACAAAATCACTCTTATATCCAAAAATCATTAATACGAATTACAGATAACGCAAAACATAGATCAGTATTTGGTTTTAGACCAGTAGTTTCCTATTTCTTCAGGTAGTTTCTAAGAATGTCAAATTATCGCAGGTAAGACGATGACACCTGTGACACGTGCCACGAGGTTACTAGTTTAAAAGGTTACTAGTTTTACAATTACGACTTTGAAATTCAGATCAGATATTGAACTTAAAAAAGGAAAAGTGTCGAAAAAGCAATTTACAATTTATTCAATATAAGAGGAGTTCGTATTTATGTATACATTACTACTTAAATATATAAAGTGAGGTAGTTTTAACCCGATCAACACTTTTAAGACTTTTTCTTTTGAATTTGCTCAGCTTAACTATAGTTCCTAGTATTCCCTATAATGTACGGCCTTACAAAAAAGTATTTTACCCACTTTTTACACTTCTGAAAAAGTTAAATGCAAACACCTTACCCCAAACAATAACTAAGTTCTTCACTCCCACGCACCGTTGAGATGTCAGTCCGTTGGAATAAACCTCTTCCACTGGCCAGACAATAAATCACGTTGCATTAGAAAAACAAACGCATGGGAGAATGCGACTATAGACTATATTTTGACACATTAAAGGGCATCACAGACAAAGGACCTCATTGTCCTTAGGATCGCTGGATGCTCCAAAGGAAGTGATAAGGGATAGGGGATCTTTTCTTTCAATGTCAACGCTGACACTTGACAACTCAATGCAATTGTTTCGAATCATGAAAATGGGTTCTGGAATACCATTATTTTCTTTTGCGAGACTCTGTAGGCAAGGCTTAACGTTCAGCTCCGGAAGAACTTTCACCTTTCCTAAAGAATCTAAAGAAAGGCAACCTTTTTTTCAGCTGCGTTTTTTATTTTATTTGGTTCTGATTTAAAAGCGTAGTTTAATAGATTTCTCGGCGCCCAGGCCAGCAACATTGTGGTACAAAAAACCAGCCGCCTGCATTAATCAGACCCCAGATATTTGACCAAATTATAGGCTCGCCCAAAGTTTCGAGGACTAAGGACGGCAGATTGATGGCTAAAAAAGCAGTTTTAAGTCGCAGCTAAGCTCATAATTCAGCTCTTTACGAAGTTGTTACTTGAAGCATTTATTCTTACACCGCAGGCGCGATGCAAACGGCCTGATAGCCAACAGAAAAAACGAAGAATGGCAAACAAGAAAACTCCAAAATAAAAAATACAAAGATGGATTTTGGAATATAGAATATACT</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ACACCTTTAGGGAGCGTACTC</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CGTAGCAAAAAGAGCCCTCAC</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>TTCCTCAGGGCATAATACCTACTATCAAA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>GATCTCTGTCAGTCCTCTGC</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>TAGTAACCTCGTGGCACGTG</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>TGTAAGGCCGTACATTATAGGG</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
